--- a/scripts/schools.xlsx
+++ b/scripts/schools.xlsx
@@ -11,378 +11,918 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="304">
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>French Status</t>
+  </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>French Status</t>
-  </si>
-  <si>
     <t>Address</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
     <t>Phone</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Principal</t>
-  </si>
-  <si>
-    <t>Superintendent</t>
+    <t>Elementary</t>
+  </si>
+  <si>
+    <t>Public</t>
+  </si>
+  <si>
+    <t>English and French</t>
   </si>
   <si>
     <t>École Alvin Buckwold School</t>
   </si>
   <si>
-    <t>Elementary</t>
-  </si>
-  <si>
-    <t>Public</t>
-  </si>
-  <si>
-    <t>English and French available</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/alvinbuckwold/Pages/default.aspx#/=</t>
+    <t>715 East Drive, Saskatoon, SK, S7J 2X8</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/alvinbuckwold/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7100</t>
+  </si>
+  <si>
+    <t>AlvinBuckwoldSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>English only</t>
   </si>
   <si>
     <t>John Lake School</t>
   </si>
   <si>
-    <t>English only</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/johnlake/Pages/default.aspx</t>
-  </si>
-  <si>
-    <t>​Brevoort Park School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/brevoort/Pages/default.aspx#/=</t>
+    <t>2606 Broadway Avenue, Saskatoon, SK, S7J 0Z6</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/johnlake/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7300</t>
+  </si>
+  <si>
+    <t>JohnLakeSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Brevoort Park School</t>
+  </si>
+  <si>
+    <t>2809 Early Drive, Saskatoon, SK, S7H 3K4</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/brevoort/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7110</t>
+  </si>
+  <si>
+    <t>BrevoortParkSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>King George Community School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/kinggeorge/Pages/default.aspx#/=</t>
+    <t>721 Avenue K South, Saskatoon, SK, S7M 2E7</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/kinggeorge/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7310</t>
+  </si>
+  <si>
+    <t>KingGeorgeSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Brownell School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/brownell/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>​</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/lakeview/Pages/default.aspx#/=</t>
+    <t>274 Russell Road, Saskatoon, SK, S7K 7E1</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/brownell/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7120</t>
+  </si>
+  <si>
+    <t>BrownellSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Lakeridge School</t>
+  </si>
+  <si>
+    <t>305 Waterbury Road, Saskatoon, SK, S7J 4Z7</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/lakeridge/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7320</t>
+  </si>
+  <si>
+    <t>LakeridgeSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Brunskill School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/brunskill/Pages/default.aspx#/=</t>
+    <t>101 Wiggins Ave S, Saskatoon, SK, S7N 1K3</t>
   </si>
   <si>
     <t>https://www.spsd.sk.ca/school/brunskill/Contact/Pages/default.aspx#/=</t>
   </si>
   <si>
+    <t>306-683-7130</t>
+  </si>
+  <si>
+    <t>BrunskillSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>École Lakeview School</t>
+  </si>
+  <si>
+    <t>527 Kingsmere Blvd, Saskatoon, SK, S7J 3V4</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/lakeview/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7330</t>
+  </si>
+  <si>
+    <t>LakeviewSchool@spsd.sk.ca</t>
+  </si>
+  <si>
     <t>Buena Vista School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/buenavista/Pages/default.aspx#/=</t>
+    <t>1306 Lorne Avenue, Saskatoon, SK, S7H 1X8</t>
   </si>
   <si>
     <t>https://www.spsd.sk.ca/school/buenavista/Contact/Pages/default.aspx#/=</t>
   </si>
   <si>
-    <t>Caroline Robins Community School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/carolinerobins/Pages/default.aspx</t>
+    <t>306-683-7140</t>
+  </si>
+  <si>
+    <t>BuenaVistaSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Lawson Heights School</t>
+  </si>
+  <si>
+    <t>430 Redberry Road, Saskatoon, SK, S7K 5H6</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/lawsonheights/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7340</t>
+  </si>
+  <si>
+    <t>LawsonHeightsSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Caroline Robins Community School</t>
+  </si>
+  <si>
+    <t>1410 Byers Crescent, Saskatoon, SK, S7L 4H3</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/carolinerobins/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7150</t>
+  </si>
+  <si>
+    <t>CarolineRobinsSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Lester B. Pearson School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/lesterbpearson/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>Caswell Community School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/caswell/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>Mayfair Community School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/mayfair/Pages/default.aspx</t>
-  </si>
-  <si>
-    <t>Charles Red Hawk Elementary School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/charlesredhawk/Pages/default.aspx#/=</t>
+    <t>3620 Centennial Drive, Saskatoon, SK, S7L 5L2</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/lesterbpearson/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7350</t>
+  </si>
+  <si>
+    <t>LesterB.PearsonSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Caswell Community School</t>
+  </si>
+  <si>
+    <t>204 - 30th Street West, Saskatoon, SK, S7L 0N9</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/caswell/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7160</t>
+  </si>
+  <si>
+    <t>CaswellSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Mayfair Community School</t>
+  </si>
+  <si>
+    <t>510 34th Street West, Saskatoon, SK, S7L 0Y2</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/mayfair/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7360</t>
+  </si>
+  <si>
+    <t>MayfairSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Charles Red Hawk Elementary School</t>
+  </si>
+  <si>
+    <t>182 Chief Whitecap Trail, Whitecap, SK, S7K 2L2</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/charlesredhawk/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306.477.2063</t>
+  </si>
+  <si>
+    <t>CharlesRedHawkSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Montgomery School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/montgomery/Pages/default.aspx#/=</t>
+    <t>3220 Ortona Street, Saskatoon, SK, S7M 3R6</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/montgomery/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7370</t>
+  </si>
+  <si>
+    <t>MontgomerySchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Chief Whitecap School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/chiefwhitecap/Pages/default.aspx#/=</t>
+    <t>812 Gordon Road, Saskatoon, SK, S7T 0J5</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/chiefwhitecap/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7640</t>
+  </si>
+  <si>
+    <t>ChiefWhitecapSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>North Park Wilson School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/northparkwilson/Pages/default.aspx</t>
+    <t>1505 9th Avenue North, Saskatoon, SK, S7K 2Z8</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/northparkwilson/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7380</t>
+  </si>
+  <si>
+    <t>NorthParkWilsonSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>City Park School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/citypark/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/queenelizabeth/Pages/default.aspx</t>
+    <t>820 9th Avenue North, Saskatoon, SK, S7K 2Z2</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/citypark/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7550</t>
+  </si>
+  <si>
+    <t>CityParkSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Prince Philip School</t>
+  </si>
+  <si>
+    <t>1715 Drinkle Street, Saskatoon, SK, S7J 0P8</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/princephilip/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7400</t>
+  </si>
+  <si>
+    <t>PrincePhilipSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Colette Bourgonje School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/colettebourgonje/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>Queen Elizabeth School​</t>
-  </si>
-  <si>
-    <t>É​cole College Park School *​</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/collegepark/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/rolandmichener/Pages/default.aspx</t>
+    <t>169 Olson Lane West, Saskatoon, SK, S7V 0L1</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/colettebourgonje/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7530</t>
+  </si>
+  <si>
+    <t>ColetteBourgonjeSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Queen Elizabeth School</t>
+  </si>
+  <si>
+    <t>1905 Eastlake Avenue, Saskatoon, SK, S7J 0W9</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/queenelizabeth/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7420</t>
+  </si>
+  <si>
+    <t>QueenElizabethSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>École College Park School</t>
+  </si>
+  <si>
+    <t>3440 Harrington Street, Saskatoon, SK, S7H 3Y4</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/collegepark/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7170</t>
+  </si>
+  <si>
+    <t>CollegeParkSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>École River Heights School</t>
+  </si>
+  <si>
+    <t>60 Ravine Drive, Saskatoon, SK, S7K 1E2</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/riverheights/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7430</t>
+  </si>
+  <si>
+    <t>RiverHeightsSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Dr. John G. Egnatoff School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/drjohngegnatoff/Pages/default.aspx#/=</t>
+    <t>225 Kenderdine Road, Saskatoon, SK, S7N 3V2</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/drjohngegnatoff/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7190</t>
+  </si>
+  <si>
+    <t>Dr.JohnG.EgnatoffSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Roland Michener School</t>
   </si>
   <si>
-    <t>École​ Dundonald School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/dundonald/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>​​École Silverspring School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/silverspring/Pages/default.aspx#/=</t>
+    <t>4215 DeGeer Street, Saskatoon, SK, S7H 4N6</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/rolandmichener/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7440</t>
+  </si>
+  <si>
+    <t>RolandMichenerSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>École Dundonald School</t>
+  </si>
+  <si>
+    <t>162 Wedge Road, Saskatoon, SK, S7L 6Y4</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/dundonald/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7200</t>
+  </si>
+  <si>
+    <t>DundonaldSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>École Silverspring School</t>
+  </si>
+  <si>
+    <t>610 Konihowski Road, Saskatoon, SK, S7S 1M5</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/silverspring/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7900</t>
+  </si>
+  <si>
+    <t>SilverspringSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Ernest Lindner School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/ernestlindner/Pages/default.aspx#/=</t>
+    <t>1087 Hampton Circle, Saskatoon, SK, S7R 0G7</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/ernestlindner/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7560</t>
+  </si>
+  <si>
+    <t>ErnestLindnerSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Silverwood Heights School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/silverwood/Pages/default.aspx</t>
+    <t>403 Silverwood Road, Saskatoon, SK, S7K 6G1</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/silverwoodheights/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7450</t>
+  </si>
+  <si>
+    <t>SilverwoodSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Fairhaven School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/fairhaven/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>Sutherland Community School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/sutherland/Pages/default.aspx</t>
-  </si>
-  <si>
-    <t>​École​ Forest Grove ​School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/forestgrove/Pages/default.aspx#/=</t>
+    <t>495 Forrester Road, Saskatoon, SK, S7M 4P7</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/fairhaven/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7210</t>
+  </si>
+  <si>
+    <t>FairhavenSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Sutherland Community School</t>
+  </si>
+  <si>
+    <t>211 - 111th Street, Saskatoon, SK, S7N 3A3</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/sutherland/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7460</t>
+  </si>
+  <si>
+    <t>SutherlandSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>École Forest Grove School</t>
+  </si>
+  <si>
+    <t>501 - 115th Street East, Saskatoon, SK, S7N 2X9</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/forestgrove/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7220</t>
+  </si>
+  <si>
+    <t>ForestGroveSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Sylvia Fedoruk School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/sylviafedoruk/Pages/default.aspx</t>
-  </si>
-  <si>
-    <t>​Greystone Heights School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/greystoneheights/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>École Victoria School​</t>
+    <t>628 Manek Road, Saskatoon, SK, S7W 0W3</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/sylviafedoruk/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7520</t>
+  </si>
+  <si>
+    <t>SylviaFedorukSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Greystone Heights School</t>
+  </si>
+  <si>
+    <t>2721 Main Street, Saskatoon, SK, S7H 0M2</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/greystoneheights/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7230</t>
+  </si>
+  <si>
+    <t>GreystoneHeightsSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>French Immersion only</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/victoria/Pages/default.aspx</t>
-  </si>
-  <si>
-    <t>​​​École ​Henry Kelsey School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/henrykelsey/Pages/default.aspx</t>
-  </si>
-  <si>
-    <t>Vincent Massey Community School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/vincentmassey/Pages/default.aspx</t>
+    <t>École Victoria School</t>
+  </si>
+  <si>
+    <t>639 Broadway Avenue, Saskatoon, SK, S7N 1B2</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/victoria/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7470</t>
+  </si>
+  <si>
+    <t>VictoriaSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>École Henry Kelsey School</t>
+  </si>
+  <si>
+    <t>16 Valens Drive, Saskatoon, SK, S7L 3S1</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/henrykelsey/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7240</t>
+  </si>
+  <si>
+    <t>HenryKelseySchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Vincent Massey Community School</t>
+  </si>
+  <si>
+    <t>1001 Northumberland Avenue, Saskatoon, SK, S7L 3W8</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/vincentmassey/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7480</t>
+  </si>
+  <si>
+    <t>VincentMasseySchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Holliston School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/holliston/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>wâhkôhtowin​ Community School​</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/wahkohtowin/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>Howard Coad Community School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/howardcoad/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>Westmount Community School​</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/westmount/Pages/default.aspx#/=</t>
+    <t>1511 Louise Avenue, Saskatoon, SK, S7H 2R2</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/holliston/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7250</t>
+  </si>
+  <si>
+    <t>HollistonSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>wâhkôhtowin Community School</t>
+  </si>
+  <si>
+    <t>3555 miyo-wâhkôhtowin Road, Saskatoon, SK, S7L 4R9</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/wahkohtowin/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7180</t>
+  </si>
+  <si>
+    <t>wahkohtowinSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Howard Coad Community School</t>
+  </si>
+  <si>
+    <t>431 Avenue T North, Saskatoon, SK, S7L 3B5</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/howardcoad/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7260</t>
+  </si>
+  <si>
+    <t>HowardCoadSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Westmount Community School</t>
+  </si>
+  <si>
+    <t>411 Avenue J North, Saskatoon, SK, S7L 2K4</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/westmount/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7490</t>
+  </si>
+  <si>
+    <t>WestmountSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Hugh Cairns School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/hughcairns/Pages/default.aspx</t>
+    <t>2621 Cairns Avenue, Saskatoon, SK, S7J 1V8</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/hughcairns/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7270</t>
+  </si>
+  <si>
+    <t>HughCairnsSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Wildwood School</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/wildwood/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>​​James L. Alexander School</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/jameslalexander/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>Willowgrove School​</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/willowgrove/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>John Dolan School​</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/johndolan/Pages/default.aspx#/=</t>
+    <t>203 Rosedale Road, Saskatoon, SK, S7H 5H1</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/wildwood/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7500</t>
+  </si>
+  <si>
+    <t>WildwoodSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>James L. Alexander School</t>
+  </si>
+  <si>
+    <t>427 McCormack Road, Saskatoon, SK, S7M 5L8</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/jameslalexander/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7280</t>
+  </si>
+  <si>
+    <t>JamesL.AlexanderSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Willowgrove School</t>
+  </si>
+  <si>
+    <t>805 Stensrud Road, Saskatoon, SK, S7W 0M9</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/willowgrove/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7970</t>
+  </si>
+  <si>
+    <t>WillowgroveSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>John Dolan School</t>
+  </si>
+  <si>
+    <t>3144 Arlington Avenue, Saskatoon, SK, S7J 3L5</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/johndolan/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7290</t>
+  </si>
+  <si>
+    <t>JohnDolanSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>W.P. Bate Community School</t>
+  </si>
+  <si>
+    <t>2515 18th Street West, Saskatoon, SK, S7M 4A9</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/wpbate/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7510</t>
+  </si>
+  <si>
+    <t>W.P.BateSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>High School</t>
   </si>
   <si>
     <t>Aden Bowman Collegiate</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/adenbowman/Pages/default.aspx#/=</t>
+    <t>1904 Clarence Avenue South, Saskatoon, SK, S7J 1L3</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/adenbowman/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7600</t>
+  </si>
+  <si>
+    <t>AdenBowmanSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Marion M. Graham Collegiate</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/marionmgraham/Pages/default.aspx#/=</t>
+    <t>602 Lenore Drive, Saskatoon, SK, S7K 6A6</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/marionmgraham/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7750</t>
+  </si>
+  <si>
+    <t>MarionM.GrahamSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Bedford Road Collegiate</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/bedfordroad/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>​Mount Royal Collegiate</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/mountroyal/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>​Centennial Collegiate</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/centennial/Pages/default.aspx#/=</t>
+    <t>722 Bedford Road, Saskatoon, SK, S7L 0G2</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/bedfordroad/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7650</t>
+  </si>
+  <si>
+    <t>BedfordRoadSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Mount Royal Collegiate</t>
+  </si>
+  <si>
+    <t>2220 Rusholme Road, Saskatoon, SK, S7L 4A4</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/mountroyal/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7800</t>
+  </si>
+  <si>
+    <t>MountRoyalSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Centennial Collegiate</t>
+  </si>
+  <si>
+    <t>160 Nelson Road, Saskatoon, SK, S7S 1P5</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/centennial/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7950</t>
+  </si>
+  <si>
+    <t>CentennialSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Nutana Collegiate</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/nutana/Pages/default.aspx#/=</t>
-  </si>
-  <si>
-    <t>Estey School​​</t>
-  </si>
-  <si>
-    <t>https://www.spsd.sk.ca/school/esteyschool/Pages/default.aspx#/=</t>
+    <t>411 - 11th Street East, Saskatoon, SK, S7N 0E9</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/nutana/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7580</t>
+  </si>
+  <si>
+    <t>NutanaSchool@spsd.sk.ca</t>
+  </si>
+  <si>
+    <t>Estey School</t>
+  </si>
+  <si>
+    <t>441 Witney Avenue North, Saskatoon, SK, S7L 3M6</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/esteyschool/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7540</t>
+  </si>
+  <si>
+    <t>EsteySchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Tommy Douglas Collegiate</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/tommydouglas/Pages/default.aspx#/=</t>
+    <t>130 Bowlt Crescent, Saskatoon, SK, S7M 0L1</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/tommydouglas/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7910</t>
+  </si>
+  <si>
+    <t>TommyDouglasSchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Evan Hardy Collegiate</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/evanhardy/Pages/default.aspx#/=</t>
+    <t>605 Acadia Drive, Saskatoon, SK, S7H 3V8</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/evanhardy/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7700</t>
+  </si>
+  <si>
+    <t>EvanHardySchool@spsd.sk.ca</t>
   </si>
   <si>
     <t>Walter Murray Collegiate</t>
   </si>
   <si>
-    <t>https://www.spsd.sk.ca/school/waltermurray/Pages/default.aspx#/=</t>
+    <t>1905 Preston Avenue, Saskatoon, SK, S7J 2E7</t>
+  </si>
+  <si>
+    <t>https://www.spsd.sk.ca/school/waltermurray/Contact/Pages/default.aspx#/=</t>
+  </si>
+  <si>
+    <t>306-683-7850</t>
+  </si>
+  <si>
+    <t>WalterMurraySchool@spsd.sk.ca</t>
   </si>
 </sst>
 </file>
@@ -759,19 +1299,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:H59"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="10" width="30" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="6" width="40" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -796,31 +1335,25 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -828,1835 +1361,1487 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="H16" t="s">
-        <v>42</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
-      </c>
-      <c r="I18" t="s">
-        <v>14</v>
-      </c>
-      <c r="J18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
-        <v>14</v>
-      </c>
-      <c r="J20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21" t="s">
-        <v>14</v>
-      </c>
-      <c r="J21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="G22" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>118</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
-      </c>
-      <c r="I23" t="s">
-        <v>14</v>
-      </c>
-      <c r="J23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="H24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" t="s">
-        <v>14</v>
-      </c>
-      <c r="J24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>130</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
+        <v>134</v>
       </c>
       <c r="G26" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
-      </c>
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-      <c r="J26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>137</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
+        <v>139</v>
       </c>
       <c r="G27" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" t="s">
-        <v>14</v>
-      </c>
-      <c r="J27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="H28" t="s">
-        <v>62</v>
-      </c>
-      <c r="I28" t="s">
-        <v>14</v>
-      </c>
-      <c r="J28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="G29" t="s">
-        <v>14</v>
+        <v>150</v>
       </c>
       <c r="H29" t="s">
-        <v>64</v>
-      </c>
-      <c r="I29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J29" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>153</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="H30" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" t="s">
-        <v>14</v>
-      </c>
-      <c r="J30" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
-      </c>
-      <c r="I31" t="s">
-        <v>14</v>
-      </c>
-      <c r="J31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="G32" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
-      </c>
-      <c r="I32" t="s">
-        <v>14</v>
-      </c>
-      <c r="J32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="E33" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="G33" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="H33" t="s">
-        <v>72</v>
-      </c>
-      <c r="I33" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
+        <v>174</v>
       </c>
       <c r="G34" t="s">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s">
-        <v>14</v>
-      </c>
-      <c r="J34" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
+        <v>178</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="G35" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="H35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I35" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>184</v>
       </c>
       <c r="G36" t="s">
-        <v>14</v>
+        <v>185</v>
       </c>
       <c r="H36" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="D37" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
+        <v>189</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="G37" t="s">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="H37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="D38" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="F38" t="s">
-        <v>14</v>
+        <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>14</v>
+        <v>196</v>
       </c>
       <c r="H38" t="s">
-        <v>83</v>
-      </c>
-      <c r="I38" t="s">
-        <v>14</v>
-      </c>
-      <c r="J38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G39" t="s">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>203</v>
       </c>
       <c r="E40" t="s">
-        <v>14</v>
+        <v>204</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="G40" t="s">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="H40" t="s">
-        <v>87</v>
-      </c>
-      <c r="I40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
+        <v>210</v>
       </c>
       <c r="G41" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="H41" t="s">
-        <v>89</v>
-      </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>213</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="G42" t="s">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="H42" t="s">
-        <v>91</v>
-      </c>
-      <c r="I42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>17</v>
+        <v>218</v>
       </c>
       <c r="E43" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>221</v>
       </c>
       <c r="H43" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43" t="s">
-        <v>14</v>
-      </c>
-      <c r="J43" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>17</v>
+        <v>223</v>
       </c>
       <c r="E44" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="G44" t="s">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="H44" t="s">
-        <v>95</v>
-      </c>
-      <c r="I44" t="s">
-        <v>14</v>
-      </c>
-      <c r="J44" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>228</v>
       </c>
       <c r="E45" t="s">
-        <v>14</v>
+        <v>229</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="G45" t="s">
-        <v>14</v>
+        <v>231</v>
       </c>
       <c r="H45" t="s">
-        <v>97</v>
-      </c>
-      <c r="I45" t="s">
-        <v>14</v>
-      </c>
-      <c r="J45" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>17</v>
+        <v>233</v>
       </c>
       <c r="E46" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>236</v>
       </c>
       <c r="H46" t="s">
-        <v>99</v>
-      </c>
-      <c r="I46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J46" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>238</v>
       </c>
       <c r="E47" t="s">
-        <v>14</v>
+        <v>239</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
+        <v>240</v>
       </c>
       <c r="G47" t="s">
-        <v>14</v>
+        <v>241</v>
       </c>
       <c r="H47" t="s">
-        <v>101</v>
-      </c>
-      <c r="I47" t="s">
-        <v>14</v>
-      </c>
-      <c r="J47" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>244</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
       <c r="G48" t="s">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="H48" t="s">
-        <v>103</v>
-      </c>
-      <c r="I48" t="s">
-        <v>14</v>
-      </c>
-      <c r="J48" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="G49" t="s">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
-      </c>
-      <c r="I49" t="s">
-        <v>14</v>
-      </c>
-      <c r="J49" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="B50" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>254</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
+        <v>256</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="H50" t="s">
-        <v>105</v>
-      </c>
-      <c r="I50" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="B51" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>259</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>260</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
+        <v>261</v>
       </c>
       <c r="G51" t="s">
-        <v>14</v>
+        <v>262</v>
       </c>
       <c r="H51" t="s">
-        <v>107</v>
-      </c>
-      <c r="I51" t="s">
-        <v>14</v>
-      </c>
-      <c r="J51" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>253</v>
       </c>
       <c r="B52" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>264</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>265</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>267</v>
       </c>
       <c r="H52" t="s">
-        <v>109</v>
-      </c>
-      <c r="I52" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>253</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>269</v>
       </c>
       <c r="E53" t="s">
-        <v>14</v>
+        <v>270</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
+        <v>271</v>
       </c>
       <c r="G53" t="s">
-        <v>14</v>
+        <v>272</v>
       </c>
       <c r="H53" t="s">
-        <v>111</v>
-      </c>
-      <c r="I53" t="s">
-        <v>14</v>
-      </c>
-      <c r="J53" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>274</v>
       </c>
       <c r="E54" t="s">
-        <v>14</v>
+        <v>275</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
+        <v>276</v>
       </c>
       <c r="G54" t="s">
-        <v>14</v>
+        <v>277</v>
       </c>
       <c r="H54" t="s">
-        <v>113</v>
-      </c>
-      <c r="I54" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>253</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="E55" t="s">
-        <v>14</v>
+        <v>280</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
+        <v>281</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>282</v>
       </c>
       <c r="H55" t="s">
-        <v>115</v>
-      </c>
-      <c r="I55" t="s">
-        <v>14</v>
-      </c>
-      <c r="J55" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>17</v>
+        <v>284</v>
       </c>
       <c r="E56" t="s">
-        <v>14</v>
+        <v>285</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>287</v>
       </c>
       <c r="H56" t="s">
-        <v>117</v>
-      </c>
-      <c r="I56" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>253</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
+        <v>289</v>
       </c>
       <c r="E57" t="s">
-        <v>14</v>
+        <v>290</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
       <c r="G57" t="s">
-        <v>14</v>
+        <v>292</v>
       </c>
       <c r="H57" t="s">
-        <v>119</v>
-      </c>
-      <c r="I57" t="s">
-        <v>14</v>
-      </c>
-      <c r="J57" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>120</v>
+        <v>253</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>294</v>
       </c>
       <c r="E58" t="s">
-        <v>14</v>
+        <v>295</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
       <c r="G58" t="s">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="H58" t="s">
-        <v>121</v>
-      </c>
-      <c r="I58" t="s">
-        <v>14</v>
-      </c>
-      <c r="J58" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>13</v>
+        <v>299</v>
       </c>
       <c r="E59" t="s">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
+        <v>301</v>
       </c>
       <c r="G59" t="s">
-        <v>14</v>
+        <v>302</v>
       </c>
       <c r="H59" t="s">
-        <v>123</v>
-      </c>
-      <c r="I59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" t="s">
-        <v>14</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
